--- a/samples/Genuine_parts.xlsx
+++ b/samples/Genuine_parts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,94 +397,2120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Part No</v>
+        <v>Supplier</v>
       </c>
       <c r="B1" t="str">
+        <v>Product Code</v>
+      </c>
+      <c r="C1" t="str">
         <v>Description</v>
-      </c>
-      <c r="C1" t="str">
-        <v>List Price</v>
       </c>
       <c r="D1" t="str">
         <v>Discount Code</v>
       </c>
       <c r="E1" t="str">
-        <v>Supplier</v>
+        <v>Cost Price</v>
       </c>
       <c r="F1" t="str">
-        <v>Product Brand</v>
+        <v>Retail Price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Trade Price</v>
+      </c>
+      <c r="H1" t="str">
+        <v>List Price</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Band 1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Band 2</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Band 3</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Band 4</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Free Stock</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>LR001234</v>
+        <v>OEM Parts Co</v>
       </c>
       <c r="B2" t="str">
-        <v>Genuine Oil Filter</v>
-      </c>
-      <c r="C2">
-        <v>12.5</v>
+        <v>LR-0001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Spark Plug Set (4pc)</v>
       </c>
       <c r="D2" t="str">
-        <v>A</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Land Rover</v>
-      </c>
-      <c r="F2" t="str">
-        <v>GENUINE</v>
+        <v/>
+      </c>
+      <c r="E2">
+        <v>19.03</v>
+      </c>
+      <c r="F2">
+        <v>39.24</v>
+      </c>
+      <c r="G2">
+        <v>29.13</v>
+      </c>
+      <c r="H2">
+        <v>49.12</v>
+      </c>
+      <c r="I2">
+        <v>37.28</v>
+      </c>
+      <c r="J2">
+        <v>35.32</v>
+      </c>
+      <c r="K2">
+        <v>33.35</v>
+      </c>
+      <c r="L2">
+        <v>31.39</v>
+      </c>
+      <c r="M2">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>LR005678</v>
+        <v>OEM Parts Co</v>
       </c>
       <c r="B3" t="str">
-        <v>Genuine Brake Pads</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
+        <v>LR-0002</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Brake Disc Set - Front</v>
       </c>
       <c r="D3" t="str">
-        <v>A</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Land Rover</v>
-      </c>
-      <c r="F3" t="str">
-        <v>GENUINE</v>
+        <v>DISC-C</v>
+      </c>
+      <c r="E3">
+        <v>166.73</v>
+      </c>
+      <c r="F3">
+        <v>383.33</v>
+      </c>
+      <c r="G3">
+        <v>263.71</v>
+      </c>
+      <c r="H3">
+        <v>438.46</v>
+      </c>
+      <c r="I3">
+        <v>364.16</v>
+      </c>
+      <c r="J3">
+        <v>345</v>
+      </c>
+      <c r="K3">
+        <v>325.83</v>
+      </c>
+      <c r="L3">
+        <v>306.66</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>LR009999</v>
+        <v>OEM Parts Co</v>
       </c>
       <c r="B4" t="str">
-        <v>Genuine Air Filter</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
+        <v>LR-0003</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Coil Spring - Rear</v>
       </c>
       <c r="D4" t="str">
-        <v>A</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Land Rover</v>
-      </c>
-      <c r="F4" t="str">
-        <v>GENUINE</v>
+        <v>DISC-B</v>
+      </c>
+      <c r="E4">
+        <v>38.71</v>
+      </c>
+      <c r="F4">
+        <v>87.55</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>98.03</v>
+      </c>
+      <c r="I4">
+        <v>83.17</v>
+      </c>
+      <c r="J4">
+        <v>78.8</v>
+      </c>
+      <c r="K4">
+        <v>74.42</v>
+      </c>
+      <c r="L4">
+        <v>70.04</v>
+      </c>
+      <c r="M4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B5" t="str">
+        <v>LR-0004</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Wheel Bearing - Front</v>
+      </c>
+      <c r="D5" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E5">
+        <v>115.86</v>
+      </c>
+      <c r="F5">
+        <v>248.78</v>
+      </c>
+      <c r="G5">
+        <v>176.58</v>
+      </c>
+      <c r="H5">
+        <v>314.69</v>
+      </c>
+      <c r="I5">
+        <v>236.34</v>
+      </c>
+      <c r="J5">
+        <v>223.9</v>
+      </c>
+      <c r="K5">
+        <v>211.46</v>
+      </c>
+      <c r="L5">
+        <v>199.02</v>
+      </c>
+      <c r="M5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B6" t="str">
+        <v>LR-0005</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Shock Absorber - Rear Left</v>
+      </c>
+      <c r="D6" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E6">
+        <v>181.08</v>
+      </c>
+      <c r="F6">
+        <v>322.39</v>
+      </c>
+      <c r="G6">
+        <v>253.57</v>
+      </c>
+      <c r="H6">
+        <v>382.96</v>
+      </c>
+      <c r="I6">
+        <v>306.27</v>
+      </c>
+      <c r="J6">
+        <v>290.15</v>
+      </c>
+      <c r="K6">
+        <v>274.03</v>
+      </c>
+      <c r="L6">
+        <v>257.91</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B7" t="str">
+        <v>LR-0006</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Brake Fluid DOT 4 (1L)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E7">
+        <v>57.94</v>
+      </c>
+      <c r="F7">
+        <v>105.02</v>
+      </c>
+      <c r="G7">
+        <v>76.74</v>
+      </c>
+      <c r="H7">
+        <v>118.54</v>
+      </c>
+      <c r="I7">
+        <v>99.77</v>
+      </c>
+      <c r="J7">
+        <v>94.52</v>
+      </c>
+      <c r="K7">
+        <v>89.27</v>
+      </c>
+      <c r="L7">
+        <v>84.02</v>
+      </c>
+      <c r="M7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B8" t="str">
+        <v>LR-0007</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Control Arm - Lower Right</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8">
+        <v>94.78</v>
+      </c>
+      <c r="F8">
+        <v>189.21</v>
+      </c>
+      <c r="G8">
+        <v>156</v>
+      </c>
+      <c r="H8">
+        <v>215.47</v>
+      </c>
+      <c r="I8">
+        <v>179.75</v>
+      </c>
+      <c r="J8">
+        <v>170.29</v>
+      </c>
+      <c r="K8">
+        <v>160.83</v>
+      </c>
+      <c r="L8">
+        <v>151.37</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B9" t="str">
+        <v>LR-0008</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Control Arm - Lower Left</v>
+      </c>
+      <c r="D9" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E9">
+        <v>144.27</v>
+      </c>
+      <c r="F9">
+        <v>270.83</v>
+      </c>
+      <c r="G9">
+        <v>213.74</v>
+      </c>
+      <c r="H9">
+        <v>349.06</v>
+      </c>
+      <c r="I9">
+        <v>257.29</v>
+      </c>
+      <c r="J9">
+        <v>243.75</v>
+      </c>
+      <c r="K9">
+        <v>230.21</v>
+      </c>
+      <c r="L9">
+        <v>216.66</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B10" t="str">
+        <v>LR-0009</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Engine Oil 10W-40 (5L)</v>
+      </c>
+      <c r="D10" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E10">
+        <v>156.31</v>
+      </c>
+      <c r="F10">
+        <v>320.07</v>
+      </c>
+      <c r="G10">
+        <v>261.81</v>
+      </c>
+      <c r="H10">
+        <v>367.52</v>
+      </c>
+      <c r="I10">
+        <v>304.07</v>
+      </c>
+      <c r="J10">
+        <v>288.06</v>
+      </c>
+      <c r="K10">
+        <v>272.06</v>
+      </c>
+      <c r="L10">
+        <v>256.06</v>
+      </c>
+      <c r="M10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B11" t="str">
+        <v>LR-0010</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Control Arm - Lower Right</v>
+      </c>
+      <c r="D11" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E11">
+        <v>164.86</v>
+      </c>
+      <c r="F11">
+        <v>379.51</v>
+      </c>
+      <c r="G11">
+        <v>265.67</v>
+      </c>
+      <c r="H11">
+        <v>419.73</v>
+      </c>
+      <c r="I11">
+        <v>360.53</v>
+      </c>
+      <c r="J11">
+        <v>341.56</v>
+      </c>
+      <c r="K11">
+        <v>322.58</v>
+      </c>
+      <c r="L11">
+        <v>303.61</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B12" t="str">
+        <v>LR-0011</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Brake Fluid DOT 4 (1L)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E12">
+        <v>143.86</v>
+      </c>
+      <c r="F12">
+        <v>228.88</v>
+      </c>
+      <c r="G12">
+        <v>173.04</v>
+      </c>
+      <c r="H12">
+        <v>266.86</v>
+      </c>
+      <c r="I12">
+        <v>217.44</v>
+      </c>
+      <c r="J12">
+        <v>205.99</v>
+      </c>
+      <c r="K12">
+        <v>194.55</v>
+      </c>
+      <c r="L12">
+        <v>183.1</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B13" t="str">
+        <v>LR-0012</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Wheel Bearing - Front</v>
+      </c>
+      <c r="D13" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E13">
+        <v>76.24</v>
+      </c>
+      <c r="F13">
+        <v>147.79</v>
+      </c>
+      <c r="G13">
+        <v>99.35</v>
+      </c>
+      <c r="H13">
+        <v>165.41</v>
+      </c>
+      <c r="I13">
+        <v>140.4</v>
+      </c>
+      <c r="J13">
+        <v>133.01</v>
+      </c>
+      <c r="K13">
+        <v>125.62</v>
+      </c>
+      <c r="L13">
+        <v>118.23</v>
+      </c>
+      <c r="M13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B14" t="str">
+        <v>LR-0013</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Shock Absorber - Rear Left</v>
+      </c>
+      <c r="D14" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E14">
+        <v>104.45</v>
+      </c>
+      <c r="F14">
+        <v>172.75</v>
+      </c>
+      <c r="G14">
+        <v>136.92</v>
+      </c>
+      <c r="H14">
+        <v>199.32</v>
+      </c>
+      <c r="I14">
+        <v>164.11</v>
+      </c>
+      <c r="J14">
+        <v>155.47</v>
+      </c>
+      <c r="K14">
+        <v>146.84</v>
+      </c>
+      <c r="L14">
+        <v>138.2</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B15" t="str">
+        <v>LR-0014</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Spark Plug Set (6pc)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E15">
+        <v>17.41</v>
+      </c>
+      <c r="F15">
+        <v>42.96</v>
+      </c>
+      <c r="G15">
+        <v>30.69</v>
+      </c>
+      <c r="H15">
+        <v>52.9</v>
+      </c>
+      <c r="I15">
+        <v>40.81</v>
+      </c>
+      <c r="J15">
+        <v>38.66</v>
+      </c>
+      <c r="K15">
+        <v>36.52</v>
+      </c>
+      <c r="L15">
+        <v>34.37</v>
+      </c>
+      <c r="M15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B16" t="str">
+        <v>LR-0015</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Brake Light Bulb</v>
+      </c>
+      <c r="D16" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E16">
+        <v>171.49</v>
+      </c>
+      <c r="F16">
+        <v>280.08</v>
+      </c>
+      <c r="G16">
+        <v>224.36</v>
+      </c>
+      <c r="H16">
+        <v>334.12</v>
+      </c>
+      <c r="I16">
+        <v>266.08</v>
+      </c>
+      <c r="J16">
+        <v>252.07</v>
+      </c>
+      <c r="K16">
+        <v>238.07</v>
+      </c>
+      <c r="L16">
+        <v>224.06</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B17" t="str">
+        <v>LR-0016</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Serpentine Belt</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17">
+        <v>84.46</v>
+      </c>
+      <c r="F17">
+        <v>171.14</v>
+      </c>
+      <c r="G17">
+        <v>128.83</v>
+      </c>
+      <c r="H17">
+        <v>209.93</v>
+      </c>
+      <c r="I17">
+        <v>162.58</v>
+      </c>
+      <c r="J17">
+        <v>154.03</v>
+      </c>
+      <c r="K17">
+        <v>145.47</v>
+      </c>
+      <c r="L17">
+        <v>136.91</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B18" t="str">
+        <v>LR-0017</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Oil Filter 3.0L Petrol</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18">
+        <v>18.56</v>
+      </c>
+      <c r="F18">
+        <v>40.79</v>
+      </c>
+      <c r="G18">
+        <v>31.53</v>
+      </c>
+      <c r="H18">
+        <v>46.56</v>
+      </c>
+      <c r="I18">
+        <v>38.75</v>
+      </c>
+      <c r="J18">
+        <v>36.71</v>
+      </c>
+      <c r="K18">
+        <v>34.67</v>
+      </c>
+      <c r="L18">
+        <v>32.63</v>
+      </c>
+      <c r="M18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B19" t="str">
+        <v>LR-0018</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Engine Oil 10W-40 (5L)</v>
+      </c>
+      <c r="D19" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E19">
+        <v>38.81</v>
+      </c>
+      <c r="F19">
+        <v>85.43</v>
+      </c>
+      <c r="G19">
+        <v>60.17</v>
+      </c>
+      <c r="H19">
+        <v>99.62</v>
+      </c>
+      <c r="I19">
+        <v>81.16</v>
+      </c>
+      <c r="J19">
+        <v>76.89</v>
+      </c>
+      <c r="K19">
+        <v>72.62</v>
+      </c>
+      <c r="L19">
+        <v>68.34</v>
+      </c>
+      <c r="M19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B20" t="str">
+        <v>LR-0019</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Front Wiper Blade - Passenger</v>
+      </c>
+      <c r="D20" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E20">
+        <v>184.76</v>
+      </c>
+      <c r="F20">
+        <v>362.52</v>
+      </c>
+      <c r="G20">
+        <v>251.41</v>
+      </c>
+      <c r="H20">
+        <v>455.15</v>
+      </c>
+      <c r="I20">
+        <v>344.39</v>
+      </c>
+      <c r="J20">
+        <v>326.27</v>
+      </c>
+      <c r="K20">
+        <v>308.14</v>
+      </c>
+      <c r="L20">
+        <v>290.02</v>
+      </c>
+      <c r="M20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B21" t="str">
+        <v>LR-0020</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Wheel Bearing - Rear</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21">
+        <v>131.79</v>
+      </c>
+      <c r="F21">
+        <v>267.56</v>
+      </c>
+      <c r="G21">
+        <v>221.83</v>
+      </c>
+      <c r="H21">
+        <v>337.62</v>
+      </c>
+      <c r="I21">
+        <v>254.18</v>
+      </c>
+      <c r="J21">
+        <v>240.8</v>
+      </c>
+      <c r="K21">
+        <v>227.43</v>
+      </c>
+      <c r="L21">
+        <v>214.05</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B22" t="str">
+        <v>LR-0021</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Tie Rod End - Left</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22">
+        <v>17.58</v>
+      </c>
+      <c r="F22">
+        <v>38.36</v>
+      </c>
+      <c r="G22">
+        <v>25.82</v>
+      </c>
+      <c r="H22">
+        <v>47.7</v>
+      </c>
+      <c r="I22">
+        <v>36.44</v>
+      </c>
+      <c r="J22">
+        <v>34.52</v>
+      </c>
+      <c r="K22">
+        <v>32.61</v>
+      </c>
+      <c r="L22">
+        <v>30.69</v>
+      </c>
+      <c r="M22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B23" t="str">
+        <v>LR-0022</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Headlight Bulb H4</v>
+      </c>
+      <c r="D23" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E23">
+        <v>95.12</v>
+      </c>
+      <c r="F23">
+        <v>215.06</v>
+      </c>
+      <c r="G23">
+        <v>165.98</v>
+      </c>
+      <c r="H23">
+        <v>273.57</v>
+      </c>
+      <c r="I23">
+        <v>204.31</v>
+      </c>
+      <c r="J23">
+        <v>193.55</v>
+      </c>
+      <c r="K23">
+        <v>182.8</v>
+      </c>
+      <c r="L23">
+        <v>172.05</v>
+      </c>
+      <c r="M23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B24" t="str">
+        <v>LR-0023</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Engine Oil 10W-40 (5L)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E24">
+        <v>134.15</v>
+      </c>
+      <c r="F24">
+        <v>284.56</v>
+      </c>
+      <c r="G24">
+        <v>229.43</v>
+      </c>
+      <c r="H24">
+        <v>347.92</v>
+      </c>
+      <c r="I24">
+        <v>270.33</v>
+      </c>
+      <c r="J24">
+        <v>256.1</v>
+      </c>
+      <c r="K24">
+        <v>241.88</v>
+      </c>
+      <c r="L24">
+        <v>227.65</v>
+      </c>
+      <c r="M24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B25" t="str">
+        <v>LR-0024</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Expansion Tank</v>
+      </c>
+      <c r="D25" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E25">
+        <v>99.43</v>
+      </c>
+      <c r="F25">
+        <v>231.47</v>
+      </c>
+      <c r="G25">
+        <v>164.54</v>
+      </c>
+      <c r="H25">
+        <v>300.71</v>
+      </c>
+      <c r="I25">
+        <v>219.9</v>
+      </c>
+      <c r="J25">
+        <v>208.32</v>
+      </c>
+      <c r="K25">
+        <v>196.75</v>
+      </c>
+      <c r="L25">
+        <v>185.18</v>
+      </c>
+      <c r="M25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B26" t="str">
+        <v>LR-0025</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Radiator Cap</v>
+      </c>
+      <c r="D26" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E26">
+        <v>157.07</v>
+      </c>
+      <c r="F26">
+        <v>368.82</v>
+      </c>
+      <c r="G26">
+        <v>275.8</v>
+      </c>
+      <c r="H26">
+        <v>479.3</v>
+      </c>
+      <c r="I26">
+        <v>350.38</v>
+      </c>
+      <c r="J26">
+        <v>331.94</v>
+      </c>
+      <c r="K26">
+        <v>313.5</v>
+      </c>
+      <c r="L26">
+        <v>295.06</v>
+      </c>
+      <c r="M26">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B27" t="str">
+        <v>LR-0026</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Brake Disc Set - Rear</v>
+      </c>
+      <c r="D27" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E27">
+        <v>41.24</v>
+      </c>
+      <c r="F27">
+        <v>86.62</v>
+      </c>
+      <c r="G27">
+        <v>65.71</v>
+      </c>
+      <c r="H27">
+        <v>103.08</v>
+      </c>
+      <c r="I27">
+        <v>82.29</v>
+      </c>
+      <c r="J27">
+        <v>77.96</v>
+      </c>
+      <c r="K27">
+        <v>73.63</v>
+      </c>
+      <c r="L27">
+        <v>69.3</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B28" t="str">
+        <v>LR-0027</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Brake Fluid DOT 4 (1L)</v>
+      </c>
+      <c r="D28" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E28">
+        <v>29.52</v>
+      </c>
+      <c r="F28">
+        <v>77.04</v>
+      </c>
+      <c r="G28">
+        <v>51.39</v>
+      </c>
+      <c r="H28">
+        <v>92.65</v>
+      </c>
+      <c r="I28">
+        <v>73.19</v>
+      </c>
+      <c r="J28">
+        <v>69.34</v>
+      </c>
+      <c r="K28">
+        <v>65.48</v>
+      </c>
+      <c r="L28">
+        <v>61.63</v>
+      </c>
+      <c r="M28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B29" t="str">
+        <v>LR-0028</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Control Arm - Lower Left</v>
+      </c>
+      <c r="D29" t="str">
+        <v>DISC-A</v>
+      </c>
+      <c r="E29">
+        <v>164.83</v>
+      </c>
+      <c r="F29">
+        <v>433.48</v>
+      </c>
+      <c r="G29">
+        <v>294.31</v>
+      </c>
+      <c r="H29">
+        <v>531.48</v>
+      </c>
+      <c r="I29">
+        <v>411.81</v>
+      </c>
+      <c r="J29">
+        <v>390.13</v>
+      </c>
+      <c r="K29">
+        <v>368.46</v>
+      </c>
+      <c r="L29">
+        <v>346.78</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B30" t="str">
+        <v>LR-0029</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Oil Filter 3.0L Petrol</v>
+      </c>
+      <c r="D30" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E30">
+        <v>129.26</v>
+      </c>
+      <c r="F30">
+        <v>318.05</v>
+      </c>
+      <c r="G30">
+        <v>217.25</v>
+      </c>
+      <c r="H30">
+        <v>361.08</v>
+      </c>
+      <c r="I30">
+        <v>302.15</v>
+      </c>
+      <c r="J30">
+        <v>286.25</v>
+      </c>
+      <c r="K30">
+        <v>270.34</v>
+      </c>
+      <c r="L30">
+        <v>254.44</v>
+      </c>
+      <c r="M30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B31" t="str">
+        <v>LR-0030</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Water Pump Assembly</v>
+      </c>
+      <c r="D31" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E31">
+        <v>89.61</v>
+      </c>
+      <c r="F31">
+        <v>140.68</v>
+      </c>
+      <c r="G31">
+        <v>109.4</v>
+      </c>
+      <c r="H31">
+        <v>158.57</v>
+      </c>
+      <c r="I31">
+        <v>133.65</v>
+      </c>
+      <c r="J31">
+        <v>126.61</v>
+      </c>
+      <c r="K31">
+        <v>119.58</v>
+      </c>
+      <c r="L31">
+        <v>112.54</v>
+      </c>
+      <c r="M31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B32" t="str">
+        <v>LR-0031</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Shock Absorber - Front Left</v>
+      </c>
+      <c r="D32" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E32">
+        <v>167.51</v>
+      </c>
+      <c r="F32">
+        <v>377.47</v>
+      </c>
+      <c r="G32">
+        <v>257.26</v>
+      </c>
+      <c r="H32">
+        <v>464.83</v>
+      </c>
+      <c r="I32">
+        <v>358.6</v>
+      </c>
+      <c r="J32">
+        <v>339.72</v>
+      </c>
+      <c r="K32">
+        <v>320.85</v>
+      </c>
+      <c r="L32">
+        <v>301.98</v>
+      </c>
+      <c r="M32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B33" t="str">
+        <v>LR-0032</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Tie Rod End - Right</v>
+      </c>
+      <c r="D33" t="str">
+        <v>DISC-A</v>
+      </c>
+      <c r="E33">
+        <v>22.04</v>
+      </c>
+      <c r="F33">
+        <v>34.38</v>
+      </c>
+      <c r="G33">
+        <v>26.66</v>
+      </c>
+      <c r="H33">
+        <v>44.02</v>
+      </c>
+      <c r="I33">
+        <v>32.66</v>
+      </c>
+      <c r="J33">
+        <v>30.94</v>
+      </c>
+      <c r="K33">
+        <v>29.22</v>
+      </c>
+      <c r="L33">
+        <v>27.5</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B34" t="str">
+        <v>LR-0033</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Shock Absorber - Rear Right</v>
+      </c>
+      <c r="D34" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E34">
+        <v>82.68</v>
+      </c>
+      <c r="F34">
+        <v>204.37</v>
+      </c>
+      <c r="G34">
+        <v>141.22</v>
+      </c>
+      <c r="H34">
+        <v>228.61</v>
+      </c>
+      <c r="I34">
+        <v>194.15</v>
+      </c>
+      <c r="J34">
+        <v>183.93</v>
+      </c>
+      <c r="K34">
+        <v>173.71</v>
+      </c>
+      <c r="L34">
+        <v>163.5</v>
+      </c>
+      <c r="M34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B35" t="str">
+        <v>LR-0034</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Ball Joint - Front</v>
+      </c>
+      <c r="D35" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E35">
+        <v>195.02</v>
+      </c>
+      <c r="F35">
+        <v>331.23</v>
+      </c>
+      <c r="G35">
+        <v>255.03</v>
+      </c>
+      <c r="H35">
+        <v>409.59</v>
+      </c>
+      <c r="I35">
+        <v>314.67</v>
+      </c>
+      <c r="J35">
+        <v>298.11</v>
+      </c>
+      <c r="K35">
+        <v>281.55</v>
+      </c>
+      <c r="L35">
+        <v>264.98</v>
+      </c>
+      <c r="M35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B36" t="str">
+        <v>LR-0035</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Water Pump Assembly</v>
+      </c>
+      <c r="D36" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E36">
+        <v>82.52</v>
+      </c>
+      <c r="F36">
+        <v>189.16</v>
+      </c>
+      <c r="G36">
+        <v>139.67</v>
+      </c>
+      <c r="H36">
+        <v>238.25</v>
+      </c>
+      <c r="I36">
+        <v>179.7</v>
+      </c>
+      <c r="J36">
+        <v>170.24</v>
+      </c>
+      <c r="K36">
+        <v>160.79</v>
+      </c>
+      <c r="L36">
+        <v>151.33</v>
+      </c>
+      <c r="M36">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B37" t="str">
+        <v>LR-0036</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Shock Absorber - Rear Left</v>
+      </c>
+      <c r="D37" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E37">
+        <v>37.38</v>
+      </c>
+      <c r="F37">
+        <v>85.41</v>
+      </c>
+      <c r="G37">
+        <v>66.39</v>
+      </c>
+      <c r="H37">
+        <v>107.56</v>
+      </c>
+      <c r="I37">
+        <v>81.14</v>
+      </c>
+      <c r="J37">
+        <v>76.87</v>
+      </c>
+      <c r="K37">
+        <v>72.6</v>
+      </c>
+      <c r="L37">
+        <v>68.33</v>
+      </c>
+      <c r="M37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B38" t="str">
+        <v>LR-0037</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Serpentine Belt</v>
+      </c>
+      <c r="D38" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E38">
+        <v>19.81</v>
+      </c>
+      <c r="F38">
+        <v>35.31</v>
+      </c>
+      <c r="G38">
+        <v>26.03</v>
+      </c>
+      <c r="H38">
+        <v>40.04</v>
+      </c>
+      <c r="I38">
+        <v>33.54</v>
+      </c>
+      <c r="J38">
+        <v>31.78</v>
+      </c>
+      <c r="K38">
+        <v>30.01</v>
+      </c>
+      <c r="L38">
+        <v>28.25</v>
+      </c>
+      <c r="M38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B39" t="str">
+        <v>LR-0038</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Coil Spring - Front</v>
+      </c>
+      <c r="D39" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E39">
+        <v>86.65</v>
+      </c>
+      <c r="F39">
+        <v>164.08</v>
+      </c>
+      <c r="G39">
+        <v>110.34</v>
+      </c>
+      <c r="H39">
+        <v>200.56</v>
+      </c>
+      <c r="I39">
+        <v>155.88</v>
+      </c>
+      <c r="J39">
+        <v>147.67</v>
+      </c>
+      <c r="K39">
+        <v>139.47</v>
+      </c>
+      <c r="L39">
+        <v>131.26</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B40" t="str">
+        <v>LR-0039</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Serpentine Belt</v>
+      </c>
+      <c r="D40" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E40">
+        <v>187.84</v>
+      </c>
+      <c r="F40">
+        <v>341.66</v>
+      </c>
+      <c r="G40">
+        <v>246.66</v>
+      </c>
+      <c r="H40">
+        <v>396.07</v>
+      </c>
+      <c r="I40">
+        <v>324.58</v>
+      </c>
+      <c r="J40">
+        <v>307.49</v>
+      </c>
+      <c r="K40">
+        <v>290.41</v>
+      </c>
+      <c r="L40">
+        <v>273.33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B41" t="str">
+        <v>LR-0040</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Thermostat Housing</v>
+      </c>
+      <c r="D41" t="str">
+        <v>DISC-D</v>
+      </c>
+      <c r="E41">
+        <v>160.34</v>
+      </c>
+      <c r="F41">
+        <v>356.94</v>
+      </c>
+      <c r="G41">
+        <v>242.09</v>
+      </c>
+      <c r="H41">
+        <v>448.17</v>
+      </c>
+      <c r="I41">
+        <v>339.09</v>
+      </c>
+      <c r="J41">
+        <v>321.25</v>
+      </c>
+      <c r="K41">
+        <v>303.4</v>
+      </c>
+      <c r="L41">
+        <v>285.55</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B42" t="str">
+        <v>LR-0041</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Front Wiper Blade - Passenger</v>
+      </c>
+      <c r="D42" t="str">
+        <v>DISC-B</v>
+      </c>
+      <c r="E42">
+        <v>65.88</v>
+      </c>
+      <c r="F42">
+        <v>129.23</v>
+      </c>
+      <c r="G42">
+        <v>95.67</v>
+      </c>
+      <c r="H42">
+        <v>156.15</v>
+      </c>
+      <c r="I42">
+        <v>122.77</v>
+      </c>
+      <c r="J42">
+        <v>116.31</v>
+      </c>
+      <c r="K42">
+        <v>109.85</v>
+      </c>
+      <c r="L42">
+        <v>103.38</v>
+      </c>
+      <c r="M42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B43" t="str">
+        <v>LR-0042</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Coil Spring - Front</v>
+      </c>
+      <c r="D43" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E43">
+        <v>67.01</v>
+      </c>
+      <c r="F43">
+        <v>118.87</v>
+      </c>
+      <c r="G43">
+        <v>90.25</v>
+      </c>
+      <c r="H43">
+        <v>139.8</v>
+      </c>
+      <c r="I43">
+        <v>112.93</v>
+      </c>
+      <c r="J43">
+        <v>106.98</v>
+      </c>
+      <c r="K43">
+        <v>101.04</v>
+      </c>
+      <c r="L43">
+        <v>95.1</v>
+      </c>
+      <c r="M43">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B44" t="str">
+        <v>LR-0043</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Headlight Bulb H7</v>
+      </c>
+      <c r="D44" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E44">
+        <v>83.28</v>
+      </c>
+      <c r="F44">
+        <v>189.94</v>
+      </c>
+      <c r="G44">
+        <v>147.86</v>
+      </c>
+      <c r="H44">
+        <v>232.3</v>
+      </c>
+      <c r="I44">
+        <v>180.44</v>
+      </c>
+      <c r="J44">
+        <v>170.95</v>
+      </c>
+      <c r="K44">
+        <v>161.45</v>
+      </c>
+      <c r="L44">
+        <v>151.95</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B45" t="str">
+        <v>LR-0044</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Brake Light Bulb</v>
+      </c>
+      <c r="D45" t="str">
+        <v>DISC-A</v>
+      </c>
+      <c r="E45">
+        <v>39.33</v>
+      </c>
+      <c r="F45">
+        <v>82.62</v>
+      </c>
+      <c r="G45">
+        <v>61.03</v>
+      </c>
+      <c r="H45">
+        <v>93.31</v>
+      </c>
+      <c r="I45">
+        <v>78.49</v>
+      </c>
+      <c r="J45">
+        <v>74.36</v>
+      </c>
+      <c r="K45">
+        <v>70.23</v>
+      </c>
+      <c r="L45">
+        <v>66.1</v>
+      </c>
+      <c r="M45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B46" t="str">
+        <v>LR-0045</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Expansion Tank</v>
+      </c>
+      <c r="D46" t="str">
+        <v>DISC-E</v>
+      </c>
+      <c r="E46">
+        <v>178.27</v>
+      </c>
+      <c r="F46">
+        <v>426.63</v>
+      </c>
+      <c r="G46">
+        <v>306.09</v>
+      </c>
+      <c r="H46">
+        <v>533.48</v>
+      </c>
+      <c r="I46">
+        <v>405.3</v>
+      </c>
+      <c r="J46">
+        <v>383.97</v>
+      </c>
+      <c r="K46">
+        <v>362.64</v>
+      </c>
+      <c r="L46">
+        <v>341.3</v>
+      </c>
+      <c r="M46">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B47" t="str">
+        <v>LR-0046</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Tie Rod End - Left</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47">
+        <v>82.17</v>
+      </c>
+      <c r="F47">
+        <v>163.75</v>
+      </c>
+      <c r="G47">
+        <v>117.18</v>
+      </c>
+      <c r="H47">
+        <v>194.92</v>
+      </c>
+      <c r="I47">
+        <v>155.56</v>
+      </c>
+      <c r="J47">
+        <v>147.38</v>
+      </c>
+      <c r="K47">
+        <v>139.19</v>
+      </c>
+      <c r="L47">
+        <v>131</v>
+      </c>
+      <c r="M47">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B48" t="str">
+        <v>LR-0047</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Engine Oil 5W-30 (5L)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E48">
+        <v>185.52</v>
+      </c>
+      <c r="F48">
+        <v>335.56</v>
+      </c>
+      <c r="G48">
+        <v>240.67</v>
+      </c>
+      <c r="H48">
+        <v>424.78</v>
+      </c>
+      <c r="I48">
+        <v>318.78</v>
+      </c>
+      <c r="J48">
+        <v>302</v>
+      </c>
+      <c r="K48">
+        <v>285.23</v>
+      </c>
+      <c r="L48">
+        <v>268.45</v>
+      </c>
+      <c r="M48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B49" t="str">
+        <v>LR-0048</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Radiator Cap</v>
+      </c>
+      <c r="D49" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E49">
+        <v>24.96</v>
+      </c>
+      <c r="F49">
+        <v>53.62</v>
+      </c>
+      <c r="G49">
+        <v>37.33</v>
+      </c>
+      <c r="H49">
+        <v>60.37</v>
+      </c>
+      <c r="I49">
+        <v>50.94</v>
+      </c>
+      <c r="J49">
+        <v>48.26</v>
+      </c>
+      <c r="K49">
+        <v>45.58</v>
+      </c>
+      <c r="L49">
+        <v>42.9</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B50" t="str">
+        <v>LR-0049</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Tie Rod End - Left</v>
+      </c>
+      <c r="D50" t="str">
+        <v>DISC-C</v>
+      </c>
+      <c r="E50">
+        <v>89.13</v>
+      </c>
+      <c r="F50">
+        <v>168.14</v>
+      </c>
+      <c r="G50">
+        <v>126.42</v>
+      </c>
+      <c r="H50">
+        <v>216.44</v>
+      </c>
+      <c r="I50">
+        <v>159.73</v>
+      </c>
+      <c r="J50">
+        <v>151.33</v>
+      </c>
+      <c r="K50">
+        <v>142.92</v>
+      </c>
+      <c r="L50">
+        <v>134.51</v>
+      </c>
+      <c r="M50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>OEM Parts Co</v>
+      </c>
+      <c r="B51" t="str">
+        <v>LR-0050</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Water Pump Assembly</v>
+      </c>
+      <c r="D51" t="str">
+        <v>DISC-A</v>
+      </c>
+      <c r="E51">
+        <v>49.81</v>
+      </c>
+      <c r="F51">
+        <v>83.55</v>
+      </c>
+      <c r="G51">
+        <v>62.48</v>
+      </c>
+      <c r="H51">
+        <v>95.4</v>
+      </c>
+      <c r="I51">
+        <v>79.37</v>
+      </c>
+      <c r="J51">
+        <v>75.19</v>
+      </c>
+      <c r="K51">
+        <v>71.02</v>
+      </c>
+      <c r="L51">
+        <v>66.84</v>
+      </c>
+      <c r="M51">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M51"/>
   </ignoredErrors>
 </worksheet>
 </file>